--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stoptb-my.sharepoint.com/personal/zhizhenq_stoptb_org/Documents/UNOPS/10 Paper Writing/CAR software/02 Bangladesh/MachineBGD/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{A7D8ED52-CC81-4AE2-85F8-B79B7019E29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{97AB4959-62C1-4797-94F3-06D727764B16}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{A7D8ED52-CC81-4AE2-85F8-B79B7019E29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{78BFD379-EFCB-4657-B79C-87E54264F3A3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{704F2FF6-F65B-4819-9157-E72AEE16D0BB}"/>
+    <workbookView xWindow="47175" yWindow="-7650" windowWidth="19200" windowHeight="9405" activeTab="4" xr2:uid="{704F2FF6-F65B-4819-9157-E72AEE16D0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
     <sheet name="ROC01" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
-    <sheet name="Radiologist" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
+    <sheet name="Radiologist" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="289">
   <si>
     <t>Stratified by Xpert2Outcome_num</t>
   </si>
@@ -777,6 +778,132 @@
   </si>
   <si>
     <t>29.9% (29.1-30.8%)</t>
+  </si>
+  <si>
+    <t>Radiologist Category</t>
+  </si>
+  <si>
+    <t>DL System</t>
+  </si>
+  <si>
+    <t>Specificity Increase</t>
+  </si>
+  <si>
+    <t>Highly Suggestive</t>
+  </si>
+  <si>
+    <t>38.9%, (37.3-40.5%)</t>
+  </si>
+  <si>
+    <t>88.9%, (88.5-89.4%)</t>
+  </si>
+  <si>
+    <t>95.7% (95.4-96.0%)</t>
+  </si>
+  <si>
+    <t>6.75% (6.22-7.27%)</t>
+  </si>
+  <si>
+    <t>98.0% (97.8-98.1%)</t>
+  </si>
+  <si>
+    <t>9.02% (8.54-9.50%)</t>
+  </si>
+  <si>
+    <t>94.2% (93.8-94.5%)</t>
+  </si>
+  <si>
+    <t>5.23% (4.68-5.78%)</t>
+  </si>
+  <si>
+    <t>93.5% (93.1-93.8%)</t>
+  </si>
+  <si>
+    <t>4.55% (3.99-5.11%)</t>
+  </si>
+  <si>
+    <t>90.5% (90.1-90.9%)</t>
+  </si>
+  <si>
+    <t>1.54% (0.937-2.14%)</t>
+  </si>
+  <si>
+    <t>Probably TB</t>
+  </si>
+  <si>
+    <t>88.5%, (87.4-89.5%)</t>
+  </si>
+  <si>
+    <t>62.5%, (61.8-63.1%)</t>
+  </si>
+  <si>
+    <t>70.0% (69.3-70.6%)</t>
+  </si>
+  <si>
+    <t>7.49% (6.56-8.42%)</t>
+  </si>
+  <si>
+    <t>70.3% (69.7-71.0%)</t>
+  </si>
+  <si>
+    <t>7.87% (6.95-8.80%)</t>
+  </si>
+  <si>
+    <t>64.5% (63.8-65.1%)</t>
+  </si>
+  <si>
+    <t>2.01% (1.06-2.96%)</t>
+  </si>
+  <si>
+    <t>64.1% (63.4-64.7%)</t>
+  </si>
+  <si>
+    <t>1.62% (0.664-2.57%)</t>
+  </si>
+  <si>
+    <t>64.8% (64.1-65.4%)</t>
+  </si>
+  <si>
+    <t>2.32% (1.37-3.27%)</t>
+  </si>
+  <si>
+    <t>Any Abnormality</t>
+  </si>
+  <si>
+    <t>95.0%, (94.3-95.7%)</t>
+  </si>
+  <si>
+    <t>45.7%, (45.0-46.4%)</t>
+  </si>
+  <si>
+    <t>55.5% (54.8-56.1%)</t>
+  </si>
+  <si>
+    <t>9.78% (8.80-10.8%)</t>
+  </si>
+  <si>
+    <t>47.8% (47.1-48.5%)</t>
+  </si>
+  <si>
+    <t>2.16% (1.17-3.14%)</t>
+  </si>
+  <si>
+    <t>47.5% (46.8-48.2%)</t>
+  </si>
+  <si>
+    <t>1.80% (0.815-2.78%)</t>
+  </si>
+  <si>
+    <t>49.0% (48.3-49.7%)</t>
+  </si>
+  <si>
+    <t>3.31% (2.32-4.29%)</t>
+  </si>
+  <si>
+    <t>51.3% (50.6-52.0%)</t>
+  </si>
+  <si>
+    <t>5.60% (4.62-6.59%)</t>
   </si>
 </sst>
 </file>
@@ -787,7 +914,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,6 +972,19 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -900,7 +1040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -978,6 +1118,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2194,7 +2349,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2636,10 +2791,355 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DE9D68-6DD2-49BB-AFFC-9D01EF49B7F6}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E2:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="8" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="33">
+        <v>0.93120000000000003</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="33">
+        <v>0.96</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="33">
+        <v>0.78710000000000002</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="33">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="33">
+        <v>0.84009999999999996</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="33">
+        <v>0.6643</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="33">
+        <v>0.66010000000000002</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="33">
+        <v>0.37230000000000002</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0.95120000000000005</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="33">
+        <v>0.63009999999999999</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="33">
+        <v>0.37569999999999998</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="33">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="33">
+        <v>0.20369999999999999</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="33">
+        <v>0.53469999999999995</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="33">
+        <v>0.53010000000000002</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCCC23B-532C-482D-BF0C-EB7690B621A2}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -2884,7 +3384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089DC0B8-6159-4FAD-A0F8-2E38BB38D92B}">
   <dimension ref="A1:A74"/>
   <sheetViews>

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stoptb-my.sharepoint.com/personal/zhizhenq_stoptb_org/Documents/UNOPS/10 Paper Writing/CAR software/02 Bangladesh/MachineBGD/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{A7D8ED52-CC81-4AE2-85F8-B79B7019E29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{78BFD379-EFCB-4657-B79C-87E54264F3A3}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="8_{A7D8ED52-CC81-4AE2-85F8-B79B7019E29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6E695DA2-E60F-472F-AEC3-7FA64EBAC489}"/>
   <bookViews>
-    <workbookView xWindow="47175" yWindow="-7650" windowWidth="19200" windowHeight="9405" activeTab="4" xr2:uid="{704F2FF6-F65B-4819-9157-E72AEE16D0BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{704F2FF6-F65B-4819-9157-E72AEE16D0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="8" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
-    <sheet name="Radiologist" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="10" r:id="rId7"/>
+    <sheet name="Radiologist" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="305">
   <si>
     <t>Stratified by Xpert2Outcome_num</t>
   </si>
@@ -904,17 +907,174 @@
   </si>
   <si>
     <t>5.60% (4.62-6.59%)</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>US board certified radiologists</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>TB-related</t>
+  </si>
+  <si>
+    <t>Abnormalities</t>
+  </si>
+  <si>
+    <t>All Abnormalities</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bac+ patients </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>missed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by the Bangladeshi certified radiologists AND</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>missed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by 1 AI product</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>missed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by 2 AI products</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>missed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by 3 AI products</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>missed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by 4 AI products</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>missed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by 5 AI products</t>
+    </r>
+  </si>
+  <si>
+    <t>Sub-total</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bac+ patients </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>detected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by the Bangladeshi certified radiologists BUT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Missed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Radiologists ONLY </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -985,6 +1145,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1018,7 +1191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1035,12 +1208,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1124,15 +1357,91 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2794,7 +3103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DE9D68-6DD2-49BB-AFFC-9D01EF49B7F6}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
@@ -2831,19 +3140,19 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>252</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="31">
         <v>0.93120000000000003</v>
       </c>
       <c r="F2" s="30"/>
@@ -2855,13 +3164,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="31">
         <v>0.96</v>
       </c>
       <c r="F3" s="30"/>
@@ -2873,13 +3182,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="31">
         <v>0.78710000000000002</v>
       </c>
       <c r="F4" s="30"/>
@@ -2891,13 +3200,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="31">
         <v>0.99980000000000002</v>
       </c>
       <c r="F5" s="30"/>
@@ -2909,13 +3218,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="31">
         <v>0.84009999999999996</v>
       </c>
       <c r="F6" s="30"/>
@@ -2927,19 +3236,19 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="33" t="s">
         <v>265</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="31">
         <v>0.6643</v>
       </c>
       <c r="F7" s="30"/>
@@ -2951,13 +3260,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="31">
         <v>0.66010000000000002</v>
       </c>
       <c r="F8" s="30"/>
@@ -2969,13 +3278,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="31">
         <v>0.37230000000000002</v>
       </c>
       <c r="F9" s="30"/>
@@ -2987,13 +3296,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="31">
         <v>0.95120000000000005</v>
       </c>
       <c r="F10" s="30"/>
@@ -3005,13 +3314,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="31">
         <v>0.63009999999999999</v>
       </c>
       <c r="F11" s="30"/>
@@ -3023,19 +3332,19 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="33" t="s">
         <v>278</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="31">
         <v>0.37569999999999998</v>
       </c>
       <c r="F12" s="30"/>
@@ -3047,13 +3356,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="31">
         <v>7.0099999999999996E-2</v>
       </c>
       <c r="F13" s="30"/>
@@ -3065,13 +3374,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="31">
         <v>0.20369999999999999</v>
       </c>
       <c r="F14" s="30"/>
@@ -3083,13 +3392,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="31">
         <v>0.53469999999999995</v>
       </c>
       <c r="F15" s="30"/>
@@ -3101,13 +3410,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="31">
         <v>0.53010000000000002</v>
       </c>
       <c r="F16" s="30"/>
@@ -3385,6 +3694,474 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8429F66F-A31E-4F81-A5E8-5D3B468BEA73}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="59" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="59" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="59" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="45"/>
+      <c r="B1" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="46"/>
+      <c r="B2" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="51" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="47"/>
+      <c r="B3" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="52"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="37">
+        <v>5</v>
+      </c>
+      <c r="C5" s="54">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0</v>
+      </c>
+      <c r="E5" s="54">
+        <v>0</v>
+      </c>
+      <c r="F5" s="37">
+        <v>7</v>
+      </c>
+      <c r="G5" s="54">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="H5" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="40">
+        <v>8</v>
+      </c>
+      <c r="C6" s="55">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="D6" s="40">
+        <v>0</v>
+      </c>
+      <c r="E6" s="55">
+        <v>0</v>
+      </c>
+      <c r="F6" s="40">
+        <v>5</v>
+      </c>
+      <c r="G6" s="55">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="H6" s="34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" s="37">
+        <v>4</v>
+      </c>
+      <c r="C7" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0</v>
+      </c>
+      <c r="E7" s="54">
+        <v>0</v>
+      </c>
+      <c r="F7" s="37">
+        <v>12</v>
+      </c>
+      <c r="G7" s="54">
+        <v>0.75</v>
+      </c>
+      <c r="H7" s="38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="40">
+        <v>6</v>
+      </c>
+      <c r="C8" s="55">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D8" s="40">
+        <v>3</v>
+      </c>
+      <c r="E8" s="55">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="F8" s="40">
+        <v>12</v>
+      </c>
+      <c r="G8" s="55">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="H8" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="37">
+        <v>11</v>
+      </c>
+      <c r="C9" s="54">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="D9" s="37">
+        <v>3</v>
+      </c>
+      <c r="E9" s="54">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F9" s="37">
+        <v>32</v>
+      </c>
+      <c r="G9" s="54">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="H9" s="38">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="35">
+        <v>34</v>
+      </c>
+      <c r="C10" s="56">
+        <v>0.315</v>
+      </c>
+      <c r="D10" s="35">
+        <v>6</v>
+      </c>
+      <c r="E10" s="56">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F10" s="35">
+        <v>68</v>
+      </c>
+      <c r="G10" s="56">
+        <v>0.63</v>
+      </c>
+      <c r="H10" s="35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="53" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" s="40">
+        <v>151</v>
+      </c>
+      <c r="C12" s="55">
+        <v>0.91</v>
+      </c>
+      <c r="D12" s="40">
+        <v>12</v>
+      </c>
+      <c r="E12" s="55">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F12" s="40">
+        <v>3</v>
+      </c>
+      <c r="G12" s="55">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H12" s="34">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" s="37">
+        <v>44</v>
+      </c>
+      <c r="C13" s="54">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="D13" s="37">
+        <v>12</v>
+      </c>
+      <c r="E13" s="54">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="F13" s="37">
+        <v>5</v>
+      </c>
+      <c r="G13" s="54">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H13" s="38">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="B14" s="40">
+        <v>15</v>
+      </c>
+      <c r="C14" s="55">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="D14" s="40">
+        <v>5</v>
+      </c>
+      <c r="E14" s="55">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F14" s="40">
+        <v>1</v>
+      </c>
+      <c r="G14" s="55">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H14" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" s="37">
+        <v>12</v>
+      </c>
+      <c r="C15" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="37">
+        <v>5</v>
+      </c>
+      <c r="E15" s="54">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="F15" s="37">
+        <v>7</v>
+      </c>
+      <c r="G15" s="54">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="H15" s="38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" s="40">
+        <v>2</v>
+      </c>
+      <c r="C16" s="55">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D16" s="40">
+        <v>1</v>
+      </c>
+      <c r="E16" s="55">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F16" s="40">
+        <v>3</v>
+      </c>
+      <c r="G16" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="B17" s="43">
+        <v>224</v>
+      </c>
+      <c r="C17" s="57">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="D17" s="43">
+        <v>35</v>
+      </c>
+      <c r="E17" s="57">
+        <v>0.126</v>
+      </c>
+      <c r="F17" s="43">
+        <v>19</v>
+      </c>
+      <c r="G17" s="57">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H17" s="43">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" s="44">
+        <v>60</v>
+      </c>
+      <c r="C18" s="58">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="D18" s="44">
+        <v>6</v>
+      </c>
+      <c r="E18" s="58">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F18" s="44">
+        <v>6</v>
+      </c>
+      <c r="G18" s="58">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H18" s="35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" s="35">
+        <v>318</v>
+      </c>
+      <c r="C19" s="56">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="D19" s="35">
+        <v>47</v>
+      </c>
+      <c r="E19" s="56">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F19" s="35">
+        <v>93</v>
+      </c>
+      <c r="G19" s="56">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="H19" s="35">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="H2:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089DC0B8-6159-4FAD-A0F8-2E38BB38D92B}">
   <dimension ref="A1:A74"/>
   <sheetViews>

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stoptb-my.sharepoint.com/personal/zhizhenq_stoptb_org/Documents/UNOPS/10 Paper Writing/CAR software/02 Bangladesh/MachineBGD/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="317" documentId="8_{A7D8ED52-CC81-4AE2-85F8-B79B7019E29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6E695DA2-E60F-472F-AEC3-7FA64EBAC489}"/>
+  <xr:revisionPtr revIDLastSave="433" documentId="8_{A7D8ED52-CC81-4AE2-85F8-B79B7019E29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D832EAC1-97D9-47E5-B623-D34D0EE232BF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{704F2FF6-F65B-4819-9157-E72AEE16D0BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{704F2FF6-F65B-4819-9157-E72AEE16D0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="ROC01" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="10" r:id="rId7"/>
-    <sheet name="Radiologist" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet6" sheetId="11" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="10" r:id="rId8"/>
+    <sheet name="Radiologist" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="331">
   <si>
     <t>Stratified by Xpert2Outcome_num</t>
   </si>
@@ -783,30 +784,6 @@
     <t>29.9% (29.1-30.8%)</t>
   </si>
   <si>
-    <t>Radiologist Category</t>
-  </si>
-  <si>
-    <t>DL System</t>
-  </si>
-  <si>
-    <t>Specificity Increase</t>
-  </si>
-  <si>
-    <t>Highly Suggestive</t>
-  </si>
-  <si>
-    <t>38.9%, (37.3-40.5%)</t>
-  </si>
-  <si>
-    <t>88.9%, (88.5-89.4%)</t>
-  </si>
-  <si>
-    <t>95.7% (95.4-96.0%)</t>
-  </si>
-  <si>
-    <t>6.75% (6.22-7.27%)</t>
-  </si>
-  <si>
     <t>98.0% (97.8-98.1%)</t>
   </si>
   <si>
@@ -828,24 +805,6 @@
     <t>90.5% (90.1-90.9%)</t>
   </si>
   <si>
-    <t>1.54% (0.937-2.14%)</t>
-  </si>
-  <si>
-    <t>Probably TB</t>
-  </si>
-  <si>
-    <t>88.5%, (87.4-89.5%)</t>
-  </si>
-  <si>
-    <t>62.5%, (61.8-63.1%)</t>
-  </si>
-  <si>
-    <t>70.0% (69.3-70.6%)</t>
-  </si>
-  <si>
-    <t>7.49% (6.56-8.42%)</t>
-  </si>
-  <si>
     <t>70.3% (69.7-71.0%)</t>
   </si>
   <si>
@@ -861,30 +820,9 @@
     <t>64.1% (63.4-64.7%)</t>
   </si>
   <si>
-    <t>1.62% (0.664-2.57%)</t>
-  </si>
-  <si>
     <t>64.8% (64.1-65.4%)</t>
   </si>
   <si>
-    <t>2.32% (1.37-3.27%)</t>
-  </si>
-  <si>
-    <t>Any Abnormality</t>
-  </si>
-  <si>
-    <t>95.0%, (94.3-95.7%)</t>
-  </si>
-  <si>
-    <t>45.7%, (45.0-46.4%)</t>
-  </si>
-  <si>
-    <t>55.5% (54.8-56.1%)</t>
-  </si>
-  <si>
-    <t>9.78% (8.80-10.8%)</t>
-  </si>
-  <si>
     <t>47.8% (47.1-48.5%)</t>
   </si>
   <si>
@@ -894,19 +832,10 @@
     <t>47.5% (46.8-48.2%)</t>
   </si>
   <si>
-    <t>1.80% (0.815-2.78%)</t>
-  </si>
-  <si>
     <t>49.0% (48.3-49.7%)</t>
   </si>
   <si>
     <t>3.31% (2.32-4.29%)</t>
-  </si>
-  <si>
-    <t>51.3% (50.6-52.0%)</t>
-  </si>
-  <si>
-    <t>5.60% (4.62-6.59%)</t>
   </si>
   <si>
     <t>Normal</t>
@@ -1064,6 +993,249 @@
   <si>
     <t xml:space="preserve">Total </t>
   </si>
+  <si>
+    <t>Bangladeshi Radiologist</t>
+  </si>
+  <si>
+    <t>AI algorithms</t>
+  </si>
+  <si>
+    <t>Composite Human Reader Categories</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Cutoff Score</t>
+  </si>
+  <si>
+    <t>Specificity (95%CI)</t>
+  </si>
+  <si>
+    <r>
+      <t>Highly Suggestive of TB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (including abnormalities highly suggestive of TB only) </t>
+    </r>
+  </si>
+  <si>
+    <t>(37.3-40.5%)</t>
+  </si>
+  <si>
+    <t>(88.5-89.4%)</t>
+  </si>
+  <si>
+    <t>1.54% (0.94-2.14%)</t>
+  </si>
+  <si>
+    <t>qXR (v3)</t>
+  </si>
+  <si>
+    <t>97.9% (97.7-98.1%)</t>
+  </si>
+  <si>
+    <t>8.9% (8.45-9.42%)</t>
+  </si>
+  <si>
+    <r>
+      <t>Probably TB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (including abnormalities highly suggestive of TB and possibly associated with TB)</t>
+    </r>
+  </si>
+  <si>
+    <t>(87.4-89.5%)</t>
+  </si>
+  <si>
+    <t>(61.8-63.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32% (1.37-3.27%) </t>
+  </si>
+  <si>
+    <t>1.62% (0.66-2.57%)</t>
+  </si>
+  <si>
+    <t>76.7% (76.1-77.2%)</t>
+  </si>
+  <si>
+    <t>14.2% (13.3-15.1%)</t>
+  </si>
+  <si>
+    <r>
+      <t>Any Abnormality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (including abnormalities highly suggestive of TB, possibly associated with TB and other non-TB associated abnormalities)</t>
+    </r>
+  </si>
+  <si>
+    <t>(94.3-95.7%)</t>
+  </si>
+  <si>
+    <t>(45.0-46.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAD4TB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.3% (50.6-52.0%) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60% (4.62-6.59%) </t>
+  </si>
+  <si>
+    <t>1.80% (0.82-2.78%)</t>
+  </si>
+  <si>
+    <t>63.5% (62.9-64.2%)</t>
+  </si>
+  <si>
+    <t>17.9% (16.9-18.8%)</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>0.94-2.14%</t>
+  </si>
+  <si>
+    <t>4.68-5.78%</t>
+  </si>
+  <si>
+    <t>3.99-5.11%</t>
+  </si>
+  <si>
+    <t>8.54-9.50%</t>
+  </si>
+  <si>
+    <t>8.45-9.42%</t>
+  </si>
+  <si>
+    <t>1.37-3.27%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1.06-2.96%</t>
+  </si>
+  <si>
+    <t>0.66-2.57%</t>
+  </si>
+  <si>
+    <t>6.95-8.80%</t>
+  </si>
+  <si>
+    <t>13.3-15.1%</t>
+  </si>
+  <si>
+    <t>4.62-6.59%</t>
+  </si>
+  <si>
+    <t>0.82-2.78%</t>
+  </si>
+  <si>
+    <t>2.32-4.29%</t>
+  </si>
+  <si>
+    <t>1.17-3.14%</t>
+  </si>
+  <si>
+    <t>16.9-18.8%</t>
+  </si>
+  <si>
+    <t>95%CI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Highly Suggestive of TB 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(including abnormalities highly suggestive of TB only) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Probably TB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+(including abnormalities highly suggestive of TB and possibly associated with TB)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Any Abnormality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(including abnormalities highly suggestive of TB, possibly associated with TB and other non-TB associated abnormalities)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1074,7 +1246,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1133,13 +1305,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1158,8 +1323,43 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1190,8 +1390,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE5F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5DFEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1268,12 +1492,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1351,101 +1819,285 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3101,10 +3753,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DE9D68-6DD2-49BB-AFFC-9D01EF49B7F6}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E2:E16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3115,329 +3767,384 @@
     <col min="7" max="8" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
+    </row>
+    <row r="2" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="79"/>
+      <c r="F2" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="56"/>
+    </row>
+    <row r="3" spans="1:9" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="58">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="C3" s="58">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="83"/>
+      <c r="F3" s="57">
+        <v>84</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="I3" s="56"/>
+    </row>
+    <row r="4" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="80"/>
+      <c r="B4" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="83"/>
+      <c r="F4" s="57">
+        <v>0.79</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="I4" s="56"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="80"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="83"/>
+      <c r="F5" s="57">
+        <v>1</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="I5" s="56"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="80"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="83"/>
+      <c r="F6" s="57">
+        <v>0.96</v>
+      </c>
+      <c r="G6" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="H6" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="31">
-        <v>0.93120000000000003</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="H2" s="30" t="s">
+      <c r="I6" s="56"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="81"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="82" t="s">
+        <v>291</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="57">
+        <v>0.91</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="I7" s="56"/>
+    </row>
+    <row r="8" spans="1:9" ht="75.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="85" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="64">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="C8" s="64">
+        <v>0.625</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="88"/>
+      <c r="F8" s="63">
+        <v>63</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="H8" s="68" t="s">
+        <v>297</v>
+      </c>
+      <c r="I8" s="56"/>
+    </row>
+    <row r="9" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="84"/>
+      <c r="B9" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="63">
+        <v>0.37</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="H9" s="68" t="s">
+        <v>257</v>
+      </c>
+      <c r="I9" s="56"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="84"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="88"/>
+      <c r="F10" s="63">
+        <v>0.95</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="I10" s="56"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="84"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="88"/>
+      <c r="F11" s="63">
+        <v>0.66</v>
+      </c>
+      <c r="G11" s="63" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="30" t="s">
+      <c r="H11" s="68" t="s">
+        <v>255</v>
+      </c>
+      <c r="I11" s="56"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="86"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" s="88"/>
+      <c r="F12" s="63">
+        <v>0.64</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="H12" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="I12" s="56"/>
+    </row>
+    <row r="13" spans="1:9" ht="153.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="90" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" s="70">
+        <v>0.95</v>
+      </c>
+      <c r="C13" s="70">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="D13" s="92" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="93"/>
+      <c r="F13" s="69">
+        <v>53</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>305</v>
+      </c>
+      <c r="H13" s="74" t="s">
+        <v>306</v>
+      </c>
+      <c r="I13" s="56"/>
+    </row>
+    <row r="14" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="89"/>
+      <c r="B14" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="93"/>
+      <c r="F14" s="69">
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="H14" s="74" t="s">
+        <v>307</v>
+      </c>
+      <c r="I14" s="56"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="89"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="93"/>
+      <c r="F15" s="69">
+        <v>0.53</v>
+      </c>
+      <c r="G15" s="69" t="s">
+        <v>263</v>
+      </c>
+      <c r="H15" s="74" t="s">
+        <v>264</v>
+      </c>
+      <c r="I15" s="56"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="89"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="31">
-        <v>0.96</v>
-      </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="31">
-        <v>0.78710000000000002</v>
-      </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="E5" s="31">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="H5" s="30" t="s">
+      <c r="E16" s="93"/>
+      <c r="F16" s="69">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G16" s="69" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="31">
-        <v>0.84009999999999996</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30" t="s">
+      <c r="H16" s="74" t="s">
         <v>261</v>
       </c>
-      <c r="H6" s="30" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="31">
-        <v>0.6643</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="31">
-        <v>0.66010000000000002</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="31">
-        <v>0.37230000000000002</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" s="31">
-        <v>0.95120000000000005</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="31">
-        <v>0.63009999999999999</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="31">
-        <v>0.37569999999999998</v>
-      </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="E13" s="31">
-        <v>7.0099999999999996E-2</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="E14" s="31">
-        <v>0.20369999999999999</v>
-      </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" s="31">
-        <v>0.53469999999999995</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="31">
-        <v>0.53010000000000002</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>288</v>
-      </c>
+      <c r="I16" s="56"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="91"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="92" t="s">
+        <v>291</v>
+      </c>
+      <c r="E17" s="93"/>
+      <c r="F17" s="69">
+        <v>0.35</v>
+      </c>
+      <c r="G17" s="69" t="s">
+        <v>308</v>
+      </c>
+      <c r="H17" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="I17" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
+  <mergeCells count="21">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3445,6 +4152,552 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442C4F07-084A-4279-A453-4F45A07C6CE8}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="A1:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="6" width="7.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="111" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="112" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="113"/>
+    </row>
+    <row r="2" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="120" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="115" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="116" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="114" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="115" t="s">
+        <v>286</v>
+      </c>
+      <c r="H2" s="115" t="s">
+        <v>310</v>
+      </c>
+      <c r="I2" s="116" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="117" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="105">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="C3" s="106">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="D3" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102">
+        <v>84</v>
+      </c>
+      <c r="G3" s="102" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" s="103">
+        <v>1.54E-2</v>
+      </c>
+      <c r="I3" s="104" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="118"/>
+      <c r="B4" s="107" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98">
+        <v>0.79</v>
+      </c>
+      <c r="G4" s="98" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" s="99">
+        <v>5.2300000000000006E-2</v>
+      </c>
+      <c r="I4" s="100" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="118"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="96" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="101"/>
+      <c r="F5" s="102">
+        <v>1</v>
+      </c>
+      <c r="G5" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="103">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="I5" s="104" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="118"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98">
+        <v>0.96</v>
+      </c>
+      <c r="G6" s="98" t="s">
+        <v>247</v>
+      </c>
+      <c r="H6" s="99">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="I6" s="100" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="119"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102">
+        <v>0.91</v>
+      </c>
+      <c r="G7" s="102" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="103">
+        <v>8.900000000000001E-2</v>
+      </c>
+      <c r="I7" s="104" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="117" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" s="105">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="C8" s="106">
+        <v>0.625</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="101"/>
+      <c r="F8" s="102">
+        <v>63</v>
+      </c>
+      <c r="G8" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="H8" s="103">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="I8" s="104" t="s">
+        <v>316</v>
+      </c>
+      <c r="J8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="118"/>
+      <c r="B9" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="108" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98">
+        <v>0.37</v>
+      </c>
+      <c r="G9" s="98" t="s">
+        <v>256</v>
+      </c>
+      <c r="H9" s="99">
+        <v>2.0099999999999996E-2</v>
+      </c>
+      <c r="I9" s="100" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="118"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="96" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="101"/>
+      <c r="F10" s="102">
+        <v>0.95</v>
+      </c>
+      <c r="G10" s="102" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="103">
+        <v>1.6200000000000003E-2</v>
+      </c>
+      <c r="I10" s="104" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="118"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="97"/>
+      <c r="F11" s="98">
+        <v>0.66</v>
+      </c>
+      <c r="G11" s="98" t="s">
+        <v>254</v>
+      </c>
+      <c r="H11" s="99">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="I11" s="100" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="119"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" s="101"/>
+      <c r="F12" s="102">
+        <v>0.64</v>
+      </c>
+      <c r="G12" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="H12" s="103">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="I12" s="104" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="117" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" s="105">
+        <v>0.95</v>
+      </c>
+      <c r="C13" s="106">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="D13" s="96" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="101"/>
+      <c r="F13" s="102">
+        <v>53</v>
+      </c>
+      <c r="G13" s="102" t="s">
+        <v>305</v>
+      </c>
+      <c r="H13" s="103">
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="I13" s="104" t="s">
+        <v>322</v>
+      </c>
+      <c r="J13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="118"/>
+      <c r="B14" s="107" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" s="108" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="97"/>
+      <c r="F14" s="98">
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="98" t="s">
+        <v>262</v>
+      </c>
+      <c r="H14" s="99">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="I14" s="100" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="118"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="96" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102">
+        <v>0.53</v>
+      </c>
+      <c r="G15" s="102" t="s">
+        <v>263</v>
+      </c>
+      <c r="H15" s="103">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="I15" s="104" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="118"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="97"/>
+      <c r="F16" s="98">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G16" s="98" t="s">
+        <v>260</v>
+      </c>
+      <c r="H16" s="99">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="I16" s="100" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="119"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102">
+        <v>0.35</v>
+      </c>
+      <c r="G17" s="102" t="s">
+        <v>308</v>
+      </c>
+      <c r="H17" s="103">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="I17" s="104" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="95"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H7">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6878EBDE-3FFC-4D0B-8520-2139BC9B6B61}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H12">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0987780D-AC83-45B2-ACFC-4708761FD315}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H17">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A50A5251-A73D-42FF-8FB2-3F6E9A4CFCF8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6878EBDE-3FFC-4D0B-8520-2139BC9B6B61}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H3:H7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0987780D-AC83-45B2-ACFC-4708761FD315}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H8:H12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A50A5251-A73D-42FF-8FB2-3F6E9A4CFCF8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H13:H17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCCC23B-532C-482D-BF0C-EB7690B621A2}">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -3693,11 +4946,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8429F66F-A31E-4F81-A5E8-5D3B468BEA73}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -3705,441 +4958,441 @@
   <cols>
     <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="59" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="45" customWidth="1"/>
     <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="59" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="45" customWidth="1"/>
     <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="59" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="45" customWidth="1"/>
     <col min="8" max="8" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45"/>
-      <c r="B1" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="49" t="s">
-        <v>292</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49" t="s">
-        <v>294</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="51" t="s">
-        <v>291</v>
+      <c r="A2" s="48"/>
+      <c r="B2" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="53" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47"/>
-      <c r="B3" s="50" t="s">
-        <v>293</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="52"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
+      <c r="A4" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5" s="37">
+      <c r="A5" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="32">
         <v>5</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="40">
         <v>0.41699999999999998</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="32">
         <v>0</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="40">
         <v>0</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="32">
         <v>7</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="40">
         <v>0.58299999999999996</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="33">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="B6" s="40">
+      <c r="A6" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="35">
         <v>8</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="41">
         <v>0.61499999999999999</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="35">
         <v>0</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="41">
         <v>0</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="35">
         <v>5</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="41">
         <v>0.38500000000000001</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="29">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="B7" s="37">
+      <c r="A7" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="32">
         <v>4</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="40">
         <v>0.25</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="32">
         <v>0</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="40">
         <v>0</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="32">
         <v>12</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="40">
         <v>0.75</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="33">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8" s="40">
+      <c r="A8" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="35">
         <v>6</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="41">
         <v>0.28599999999999998</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="35">
         <v>3</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="41">
         <v>0.14299999999999999</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="35">
         <v>12</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="41">
         <v>0.57099999999999995</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="29">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
-        <v>300</v>
-      </c>
-      <c r="B9" s="37">
+      <c r="A9" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="32">
         <v>11</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="40">
         <v>0.23899999999999999</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="32">
         <v>3</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="40">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="32">
         <v>32</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="40">
         <v>0.69599999999999995</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="33">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="B10" s="35">
+      <c r="A10" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="30">
         <v>34</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="42">
         <v>0.315</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="30">
         <v>6</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="42">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="30">
         <v>68</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="42">
         <v>0.63</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="30">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="53" t="s">
-        <v>302</v>
-      </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
+      <c r="A11" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="B12" s="40">
+      <c r="A12" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="B12" s="35">
         <v>151</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="41">
         <v>0.91</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="35">
         <v>12</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="41">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="41">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="29">
         <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="36" t="s">
-        <v>297</v>
-      </c>
-      <c r="B13" s="37">
+      <c r="A13" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="32">
         <v>44</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="40">
         <v>0.72099999999999997</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="32">
         <v>12</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="40">
         <v>0.19700000000000001</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="32">
         <v>5</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="40">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="33">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
-        <v>298</v>
-      </c>
-      <c r="B14" s="40">
+      <c r="A14" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" s="35">
         <v>15</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="41">
         <v>0.71399999999999997</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="35">
         <v>5</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="41">
         <v>0.23799999999999999</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="35">
         <v>1</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="41">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="29">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="B15" s="37">
+      <c r="A15" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="32">
         <v>12</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="40">
         <v>0.5</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="32">
         <v>5</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="40">
         <v>0.20799999999999999</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="32">
         <v>7</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="40">
         <v>0.29199999999999998</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="33">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="B16" s="40">
+      <c r="A16" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" s="35">
         <v>2</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="41">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="35">
         <v>1</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="41">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="35">
         <v>3</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="41">
         <v>0.5</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="29">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="42" t="s">
-        <v>301</v>
-      </c>
-      <c r="B17" s="43">
+      <c r="A17" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="38">
         <v>224</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="43">
         <v>0.80600000000000005</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="38">
         <v>35</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="43">
         <v>0.126</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="38">
         <v>19</v>
       </c>
-      <c r="G17" s="57">
+      <c r="G17" s="43">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="H17" s="43">
+      <c r="H17" s="38">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="B18" s="44">
+      <c r="A18" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="B18" s="39">
         <v>60</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="44">
         <v>0.83299999999999996</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="39">
         <v>6</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="44">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="39">
         <v>6</v>
       </c>
-      <c r="G18" s="58">
+      <c r="G18" s="44">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="30">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="B19" s="35">
+      <c r="A19" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="B19" s="30">
         <v>318</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="42">
         <v>0.69399999999999995</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="30">
         <v>47</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19" s="42">
         <v>0.10299999999999999</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="30">
         <v>93</v>
       </c>
-      <c r="G19" s="56">
+      <c r="G19" s="42">
         <v>0.20300000000000001</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="30">
         <v>458</v>
       </c>
     </row>
@@ -4161,7 +5414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089DC0B8-6159-4FAD-A0F8-2E38BB38D92B}">
   <dimension ref="A1:A74"/>
   <sheetViews>
